--- a/assets/templates/Financial_Model_TEMPLATE_ZERO_USD_thousands_GAAP.xlsx
+++ b/assets/templates/Financial_Model_TEMPLATE_ZERO_USD_thousands_GAAP.xlsx
@@ -1848,7 +1848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E199"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
@@ -1897,7 +1897,7 @@
     <row r="3" ht="14.5" customFormat="1" customHeight="1" s="58">
       <c r="A3" s="59" t="inlineStr">
         <is>
-          <t>Balance Sheet Check (A - L + E)</t>
+          <t>Balance Sheet Check (A - (L + E))</t>
         </is>
       </c>
       <c r="B3" s="92">
@@ -2977,17 +2977,14 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B77" s="105">
-        <f>E77+B43-B45</f>
-        <v/>
-      </c>
-      <c r="C77" s="97">
-        <f>B77+C43-C45</f>
-        <v/>
-      </c>
-      <c r="D77" s="97">
-        <f>C77+D43-D45</f>
-        <v/>
+      <c r="B77" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" outlineLevel="1" ht="14.5" customHeight="1">
